--- a/notebooks/Data/Star_Wars_The_Clone_Wars_(film)/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_The_Clone_Wars_(film)/centrality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>betweenness_centrality</t>
   </si>
@@ -28,7 +28,13 @@
     <t>eigenvector_centrality</t>
   </si>
   <si>
+    <t>in_degree</t>
+  </si>
+  <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>out_degree</t>
   </si>
   <si>
     <t>Ahsoka Tano</t>
@@ -527,13 +533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +555,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -566,11 +578,17 @@
       <c r="E2">
         <v>0.2652165235507813</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -586,11 +604,17 @@
       <c r="E3">
         <v>0.1485982575998351</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -606,11 +630,17 @@
       <c r="E4">
         <v>2.872703468478174e-11</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -626,11 +656,17 @@
       <c r="E5">
         <v>0.05031741834786264</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -646,11 +682,17 @@
       <c r="E6">
         <v>0.01373733914312754</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -666,11 +708,17 @@
       <c r="E7">
         <v>0.1965908123708948</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -686,11 +734,17 @@
       <c r="E8">
         <v>0.1250041301452196</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -706,11 +760,17 @@
       <c r="E9">
         <v>7.354120879304126e-09</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -726,11 +786,17 @@
       <c r="E10">
         <v>0.2663096264616667</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -746,11 +812,17 @@
       <c r="E11">
         <v>7.354120879304126e-09</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -766,11 +838,17 @@
       <c r="E12">
         <v>0.1684798829804804</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -786,11 +864,17 @@
       <c r="E13">
         <v>0.1079206586191608</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -806,11 +890,17 @@
       <c r="E14">
         <v>0.05033591847201852</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -826,11 +916,17 @@
       <c r="E15">
         <v>0.2286373905571146</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -846,11 +942,17 @@
       <c r="E16">
         <v>0.2248170694009358</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -866,11 +968,17 @@
       <c r="E17">
         <v>0.06970328741579503</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -886,11 +994,17 @@
       <c r="E18">
         <v>2.872703468478174e-11</v>
       </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -906,11 +1020,17 @@
       <c r="E19">
         <v>0.1546942858375996</v>
       </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -926,11 +1046,17 @@
       <c r="E20">
         <v>0.2224051172043259</v>
       </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -946,11 +1072,17 @@
       <c r="E21">
         <v>0.1655235425603207</v>
       </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -966,11 +1098,17 @@
       <c r="E22">
         <v>0.08305411786639919</v>
       </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -986,11 +1124,17 @@
       <c r="E23">
         <v>0.2154445822672641</v>
       </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1006,11 +1150,17 @@
       <c r="E24">
         <v>7.354120879304126e-09</v>
       </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1026,11 +1176,17 @@
       <c r="E25">
         <v>0.12950770305173</v>
       </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1046,11 +1202,17 @@
       <c r="E26">
         <v>2.872703468478174e-11</v>
       </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1066,11 +1228,17 @@
       <c r="E27">
         <v>2.872703468478174e-11</v>
       </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1086,11 +1254,17 @@
       <c r="E28">
         <v>2.872703468478174e-11</v>
       </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1106,11 +1280,17 @@
       <c r="E29">
         <v>0.01055465698033468</v>
       </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1126,11 +1306,17 @@
       <c r="E30">
         <v>0.2497785699810081</v>
       </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1146,11 +1332,17 @@
       <c r="E31">
         <v>0.1492751136206183</v>
       </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1166,11 +1358,17 @@
       <c r="E32">
         <v>7.354120879304126e-09</v>
       </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1186,11 +1384,17 @@
       <c r="E33">
         <v>0.02754906340914605</v>
       </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1206,11 +1410,17 @@
       <c r="E34">
         <v>0.01699440645753841</v>
       </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1226,11 +1436,17 @@
       <c r="E35">
         <v>2.872703468478174e-11</v>
       </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1246,11 +1462,17 @@
       <c r="E36">
         <v>2.872703468478174e-11</v>
       </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1266,11 +1488,17 @@
       <c r="E37">
         <v>0.1419598211493863</v>
       </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1286,11 +1514,17 @@
       <c r="E38">
         <v>0.266521774176462</v>
       </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1306,11 +1540,17 @@
       <c r="E39">
         <v>0.1594570660242256</v>
       </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1326,11 +1566,17 @@
       <c r="E40">
         <v>0.1117940687430618</v>
       </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1346,11 +1592,17 @@
       <c r="E41">
         <v>2.872703468478174e-11</v>
       </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1366,11 +1618,17 @@
       <c r="E42">
         <v>0.2741295746224137</v>
       </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1386,11 +1644,17 @@
       <c r="E43">
         <v>0.02730565367121717</v>
       </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1406,11 +1670,17 @@
       <c r="E44">
         <v>0.102175561101095</v>
       </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1426,11 +1696,17 @@
       <c r="E45">
         <v>0.01691122747224379</v>
       </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1446,11 +1722,17 @@
       <c r="E46">
         <v>0.2565853146229767</v>
       </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1466,11 +1748,17 @@
       <c r="E47">
         <v>0.2208701451865624</v>
       </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1486,8 +1774,14 @@
       <c r="E48">
         <v>0.2058190001908277</v>
       </c>
-      <c r="F48" t="s">
-        <v>51</v>
+      <c r="F48">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
